--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="2"/>
-    <sheet name="Test Steps" r:id="rId2" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId3" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId4" sheetId="8"/>
-    <sheet name="Test Data" r:id="rId5" sheetId="3"/>
-    <sheet name="Settings" r:id="rId6" sheetId="4"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Test Data" sheetId="3" r:id="rId5"/>
+    <sheet name="Settings" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Action_Keywords">Settings!$D$2:$D$8</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -169,7 +169,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -240,25 +239,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -275,10 +274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -313,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +435,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -445,13 +444,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -461,7 +460,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -470,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -479,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,12 +488,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -525,7 +524,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -544,7 +543,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -556,8 +555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -565,12 +564,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="1" max="1" width="19.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -600,43 +599,43 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.75" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.125" collapsed="true"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -680,9 +679,6 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -702,9 +698,6 @@
       <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -719,38 +712,54 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -759,18 +768,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.75" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.125" collapsed="true"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -868,23 +877,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>Page_Name</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="A1:XFD1048576"/>
@@ -892,12 +901,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="1" max="1" width="19.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -926,13 +935,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -940,10 +949,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="22.625" collapsed="true"/>
+    <col min="1" max="4" width="22.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1023,16 +1032,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -1040,10 +1049,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="1" max="4" width="23.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.25" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1126,6 +1135,6 @@
       <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
